--- a/Person/邸凯扬/用户故事.xlsx
+++ b/Person/邸凯扬/用户故事.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\新建文件夹\SoftwareEngineering\SoftwareEngineering\Person\邸凯扬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E079AAA5-C2F1-42D5-ABFD-ACC2F95518A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCF30AA-B8FC-49BB-AFF8-81B33E852258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1605" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="1905" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>user story</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,7 +127,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预估时间</t>
+    <t>冲刺号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,201 +465,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="71.625" customWidth="1"/>
+    <col min="5" max="5" width="71.625" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>98</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>97</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G4">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>77</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>55</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
+      <c r="G9">
+        <v>37</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
     </row>
